--- a/FINAL PROJECT TEST RESULTS/Rendering Times.xlsx
+++ b/FINAL PROJECT TEST RESULTS/Rendering Times.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>Rendering Stage</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>~50s</t>
+  </si>
+  <si>
+    <t>Full Implementation on T430</t>
+  </si>
+  <si>
+    <t>1 sample</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>20 samples</t>
+  </si>
+  <si>
+    <t>29s</t>
+  </si>
+  <si>
+    <t>9 samples</t>
+  </si>
+  <si>
+    <t>21s</t>
   </si>
 </sst>
 </file>
@@ -213,10 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,18 +541,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
     <col min="8" max="8" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -543,13 +564,13 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="3" t="s">
         <v>3</v>
       </c>
@@ -573,7 +594,7 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1">
@@ -598,7 +619,7 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1">
@@ -623,7 +644,7 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1">
@@ -648,11 +669,11 @@
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1">
-        <f xml:space="preserve"> AVERAGE(C7:E7)</f>
+        <f t="shared" ref="H7:H20" si="0" xml:space="preserve"> AVERAGE(C7:E7)</f>
         <v>725.45133333333342</v>
       </c>
     </row>
@@ -675,11 +696,11 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1">
-        <f xml:space="preserve"> AVERAGE(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>3.331</v>
       </c>
     </row>
@@ -700,11 +721,11 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <f xml:space="preserve"> AVERAGE(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>28.145</v>
       </c>
     </row>
@@ -725,11 +746,11 @@
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1">
-        <f xml:space="preserve"> AVERAGE(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>121.55966666666667</v>
       </c>
     </row>
@@ -750,11 +771,11 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1">
-        <f xml:space="preserve"> AVERAGE(C11:E11)</f>
+        <f t="shared" si="0"/>
         <v>347.83833333333331</v>
       </c>
     </row>
@@ -777,11 +798,11 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1">
-        <f xml:space="preserve"> AVERAGE(C12:E12)</f>
+        <f t="shared" si="0"/>
         <v>22.332333333333334</v>
       </c>
     </row>
@@ -802,11 +823,11 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
-        <f xml:space="preserve"> AVERAGE(C13:E13)</f>
+        <f t="shared" si="0"/>
         <v>84.938000000000002</v>
       </c>
     </row>
@@ -827,11 +848,11 @@
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1">
-        <f xml:space="preserve"> AVERAGE(C14:E14)</f>
+        <f t="shared" si="0"/>
         <v>192.32366666666667</v>
       </c>
     </row>
@@ -852,11 +873,11 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1">
-        <f xml:space="preserve"> AVERAGE(C15:E15)</f>
+        <f t="shared" si="0"/>
         <v>367.52</v>
       </c>
     </row>
@@ -879,11 +900,11 @@
       <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
-        <f xml:space="preserve"> AVERAGE(C16:E16)</f>
+        <f t="shared" si="0"/>
         <v>21.975666666666669</v>
       </c>
     </row>
@@ -904,11 +925,11 @@
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="1">
-        <f xml:space="preserve"> AVERAGE(C17:E17)</f>
+        <f t="shared" si="0"/>
         <v>65.314666666666668</v>
       </c>
     </row>
@@ -929,11 +950,11 @@
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1">
-        <f xml:space="preserve"> AVERAGE(C18:E18)</f>
+        <f t="shared" si="0"/>
         <v>88.983666666666679</v>
       </c>
     </row>
@@ -954,11 +975,11 @@
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="1">
-        <f xml:space="preserve"> AVERAGE(C19:E19)</f>
+        <f t="shared" si="0"/>
         <v>117.34699999999999</v>
       </c>
     </row>
@@ -981,11 +1002,11 @@
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1">
-        <f xml:space="preserve"> AVERAGE(C20:E20)</f>
+        <f t="shared" si="0"/>
         <v>99.001666666666665</v>
       </c>
     </row>
@@ -1006,7 +1027,7 @@
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -1030,7 +1051,7 @@
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -1054,7 +1075,7 @@
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -1080,7 +1101,7 @@
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="1">
@@ -1107,7 +1128,7 @@
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -1133,7 +1154,7 @@
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -1159,11 +1180,38 @@
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
